--- a/results/results_topological_analysis.xlsx
+++ b/results/results_topological_analysis.xlsx
@@ -1,32 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="iCC390" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="iCC431" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="iCC464" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="iCC644" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="iCC390" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="iCC431" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="iCC464" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="iCC644" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -40,12 +45,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -57,18 +77,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -432,10 +455,15 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="10.109375"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="10"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="17.33203125"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
@@ -503,7 +531,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -516,10 +544,14 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="10.109375"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="10"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
@@ -587,7 +619,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -599,11 +631,11 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
@@ -671,7 +703,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -690,44 +722,44 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>e reactions</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>c reactions</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>e metabolites</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>c metabolites</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>exchange reactions</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>genes</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>GPRs</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>total</t>
         </is>
@@ -736,7 +768,7 @@
         <v>267</v>
       </c>
       <c r="C2" t="n">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D2" t="n">
         <v>135</v>
@@ -748,13 +780,13 @@
         <v>136</v>
       </c>
       <c r="G2" t="n">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H2" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/results/results_topological_analysis.xlsx
+++ b/results/results_topological_analysis.xlsx
@@ -2,36 +2,31 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="iCC390" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="iCC389" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="iCC431" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="iCC464" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="iCC644" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="iCC470" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="iCC651" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -45,27 +40,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -79,17 +59,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
@@ -455,15 +432,10 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="10.109375"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="10"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" width="17.33203125"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
@@ -544,14 +516,10 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="D2:E2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="10.109375"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="10"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
@@ -631,11 +599,11 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
@@ -722,68 +690,68 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>e reactions</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>c reactions</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>e metabolites</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>c metabolites</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>exchange reactions</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>genes</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>GPRs</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C2" t="n">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D2" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E2" t="n">
         <v>604</v>
       </c>
       <c r="F2" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G2" t="n">
         <v>651</v>
       </c>
       <c r="H2" t="n">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>

--- a/results/results_topological_analysis.xlsx
+++ b/results/results_topological_analysis.xlsx
@@ -8,22 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uminho365-my.sharepoint.com/personal/id8006_uminho_pt/Documents/Pycharm_projects/lab_models/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_5AC131BA19AF5F7D0786B972E12BAA5214D291F7" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3F546452-A40D-402A-8D33-E5BC8B1898D9}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_4DDB213354701D6D951B74DC6917AC169A7FCD35" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4AE81345-D8A2-435B-B251-9D1B098B72C9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iCC389" sheetId="1" r:id="rId1"/>
     <sheet name="iCC431" sheetId="2" r:id="rId2"/>
     <sheet name="iCC470" sheetId="3" r:id="rId3"/>
-    <sheet name="iCC651" sheetId="5" r:id="rId4"/>
+    <sheet name="iCC651" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="15">
   <si>
     <t>e reactions</t>
   </si>
@@ -47,19 +58,46 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>Gene coverage</t>
+  </si>
+  <si>
+    <t>Transport reactions</t>
+  </si>
+  <si>
+    <t>Cytoplasmatic reactions</t>
+  </si>
+  <si>
+    <t>Exchange reactions</t>
+  </si>
+  <si>
+    <t>Total reactions</t>
+  </si>
+  <si>
+    <t>Extracellular reactions</t>
+  </si>
+  <si>
+    <t>1 is the biomass sink</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -76,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -99,13 +137,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -410,11 +466,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="D2:E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -456,13 +524,69 @@
         <v>486</v>
       </c>
       <c r="F2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>389</v>
       </c>
       <c r="H2">
         <v>499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <f>G2/1854*100</f>
+        <v>20.981661272923407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <f>B2-F2-C7</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <f>C2-C5</f>
+        <v>456</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <f>F2</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <f>C6+C8+C5+C7</f>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -472,11 +596,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -525,6 +660,59 @@
       </c>
       <c r="H2">
         <v>756</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <f>G2/1642*100</f>
+        <v>26.248477466504262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <f>B2-F2-C7</f>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <f>C2-C5-C7</f>
+        <v>606</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <f>F2</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <f>C6+C8+C5+C7</f>
+        <v>962</v>
       </c>
     </row>
   </sheetData>
@@ -534,37 +722,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="D2:E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2">
@@ -574,19 +773,72 @@
         <v>567</v>
       </c>
       <c r="D2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2">
         <v>468</v>
       </c>
       <c r="F2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G2">
         <v>470</v>
       </c>
       <c r="H2">
         <v>524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <f>G2/1779*100</f>
+        <v>26.419336706014612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <f>B2-F2-C7</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <f>C2-C5</f>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <f>F2</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <f>C6+C8+C5+C7</f>
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -595,14 +847,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -644,13 +905,66 @@
         <v>604</v>
       </c>
       <c r="F2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G2">
         <v>651</v>
       </c>
       <c r="H2">
         <v>681</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <f>G2/2704*100</f>
+        <v>24.075443786982248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <f>B2-F2-C7</f>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <f>C2-C5</f>
+        <v>607</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <f>F2</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <f>C6+C8+C5+C7</f>
+        <v>876</v>
       </c>
     </row>
   </sheetData>
